--- a/odm test companion sample - after.xlsx
+++ b/odm test companion sample - after.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RuleScape-wrk\work\assets\demo\to_restore\dvsboost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3352E29-E646-45CC-A3B1-2BB28D6846FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{612E2441-6CFA-496A-934B-920E5C02ADC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
     <definedName name="rulescape_ids" localSheetId="20">'Exp-compliance issue'!$B$7:$B$113</definedName>
     <definedName name="rulescape_ids" localSheetId="18">'Expected Results'!$B$9:$B$120</definedName>
     <definedName name="rulescape_ids" localSheetId="21">'Exp-rules message'!$B$7:$B$112</definedName>
-    <definedName name="rulescape_ids" localSheetId="10">'insurance data'!$B$7:$B$115</definedName>
+    <definedName name="rulescape_ids" localSheetId="10">'insurance data'!$B$7:$B$119</definedName>
     <definedName name="rulescape_ids" localSheetId="11">'loan data'!$B$7:$B$115</definedName>
     <definedName name="rulescape_ids" localSheetId="12">'loan usage'!$B$7:$B$113</definedName>
     <definedName name="rulescape_ids" localSheetId="15">'payment data'!$B$7:$B$114</definedName>
@@ -3224,7 +3224,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="686">
   <si>
     <t/>
   </si>
@@ -5355,12 +5355,24 @@
   <si>
     <t>purchase data 11</t>
   </si>
+  <si>
+    <t>insurance data 5</t>
+  </si>
+  <si>
+    <t>insurance data 6</t>
+  </si>
+  <si>
+    <t>insurance data 7</t>
+  </si>
+  <si>
+    <t>insurance data 8</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -5476,6 +5488,12 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -5487,6 +5505,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5494,6 +5513,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5501,25 +5521,29 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFACD"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -5736,7 +5760,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -5814,18 +5838,18 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="19" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="21" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="20" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="20" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="22" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="18" fillId="9" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="24" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="24" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="18" fillId="10" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="21" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="24" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="19" fillId="9" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="25" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="19" fillId="10" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="22" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -10936,10 +10960,7 @@
   <dimension ref="B2:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="I23" sqref="I23"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -11125,7 +11146,7 @@
       <c r="B9" s="63" t="s">
         <v>595</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="58" t="s">
         <v>596</v>
       </c>
       <c r="D9" s="53" t="s">
@@ -11161,7 +11182,7 @@
     </row>
     <row r="10" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="54"/>
-      <c r="C10" s="58"/>
+      <c r="C10" s="57"/>
       <c r="D10" s="53"/>
       <c r="E10" s="53"/>
       <c r="F10" s="55"/>
@@ -11179,7 +11200,7 @@
     </row>
     <row r="11" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="54"/>
-      <c r="C11" s="58"/>
+      <c r="C11" s="57"/>
       <c r="D11" s="53"/>
       <c r="E11" s="53"/>
       <c r="F11" s="55"/>
@@ -11197,7 +11218,7 @@
       <c r="B12" s="63" t="s">
         <v>601</v>
       </c>
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="58" t="s">
         <v>596</v>
       </c>
       <c r="D12" s="59" t="s">
@@ -11227,7 +11248,7 @@
     </row>
     <row r="13" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="54"/>
-      <c r="C13" s="58"/>
+      <c r="C13" s="57"/>
       <c r="D13" s="53"/>
       <c r="E13" s="53"/>
       <c r="F13" s="55"/>
@@ -11243,7 +11264,7 @@
     </row>
     <row r="14" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="54"/>
-      <c r="C14" s="58"/>
+      <c r="C14" s="57"/>
       <c r="D14" s="53"/>
       <c r="E14" s="53"/>
       <c r="F14" s="55"/>
@@ -11261,7 +11282,7 @@
       <c r="B15" s="63" t="s">
         <v>650</v>
       </c>
-      <c r="C15" s="57" t="s">
+      <c r="C15" s="58" t="s">
         <v>649</v>
       </c>
       <c r="D15" s="59" t="s">
@@ -11297,7 +11318,7 @@
     </row>
     <row r="16" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="54"/>
-      <c r="C16" s="58"/>
+      <c r="C16" s="57"/>
       <c r="D16" s="53"/>
       <c r="E16" s="53"/>
       <c r="F16" s="55"/>
@@ -11315,7 +11336,7 @@
     </row>
     <row r="17" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="54"/>
-      <c r="C17" s="58"/>
+      <c r="C17" s="57"/>
       <c r="D17" s="53"/>
       <c r="E17" s="53"/>
       <c r="F17" s="55"/>
@@ -11331,7 +11352,7 @@
       <c r="B18" s="63" t="s">
         <v>655</v>
       </c>
-      <c r="C18" s="57" t="s">
+      <c r="C18" s="58" t="s">
         <v>656</v>
       </c>
       <c r="D18" s="59" t="s">
@@ -11367,7 +11388,7 @@
     </row>
     <row r="19" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="56"/>
-      <c r="C19" s="57"/>
+      <c r="C19" s="58"/>
       <c r="D19" s="53"/>
       <c r="E19" s="53"/>
       <c r="F19" s="55"/>
@@ -11383,7 +11404,7 @@
     </row>
     <row r="20" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="54"/>
-      <c r="C20" s="57"/>
+      <c r="C20" s="58"/>
       <c r="D20" s="53"/>
       <c r="E20" s="53"/>
       <c r="F20" s="55"/>
@@ -11399,7 +11420,7 @@
       <c r="B21" s="63" t="s">
         <v>654</v>
       </c>
-      <c r="C21" s="57" t="s">
+      <c r="C21" s="58" t="s">
         <v>649</v>
       </c>
       <c r="D21" s="59" t="s">
@@ -11435,7 +11456,7 @@
     </row>
     <row r="22" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="56"/>
-      <c r="C22" s="58"/>
+      <c r="C22" s="57"/>
       <c r="D22" s="53"/>
       <c r="E22" s="53"/>
       <c r="F22" s="55"/>
@@ -11453,7 +11474,7 @@
       <c r="B23" s="64" t="s">
         <v>664</v>
       </c>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="57" t="s">
         <v>665</v>
       </c>
       <c r="D23" s="59" t="s">
@@ -11469,7 +11490,7 @@
         <v>668</v>
       </c>
       <c r="H23" s="59" t="s">
-        <v>296</v>
+        <v>684</v>
       </c>
       <c r="I23" s="59" t="s">
         <v>657</v>
@@ -11489,7 +11510,7 @@
     </row>
     <row r="24" spans="2:13" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="54"/>
-      <c r="C24" s="58"/>
+      <c r="C24" s="57"/>
       <c r="D24" s="53"/>
       <c r="E24" s="53"/>
       <c r="F24" s="55"/>
@@ -11513,81 +11534,81 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:E12 E14:E22 E24:E1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>domainA</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Reference" error="Enter a valid id defined in sheet 'application data'. If, however, you truly wish to enter a yet-to-be-defined id, click on Ok." sqref="D9:D131" xr:uid="{5E93C4F5-935B-4144-84FB-9A0BB7CD4908}">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Reference" error="Enter a valid id defined in sheet 'application data'. If, however, you truly wish to enter a yet-to-be-defined id, click on Ok." sqref="D9:D131" xr:uid="{BB0A18FA-9AFB-42B1-B8CF-3CF9249D8EB0}">
       <formula1>'application data'!rulescape_ids</formula1>
     </dataValidation>
-    <dataValidation type="date" errorStyle="information" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Date" error="Enter a valid Date." sqref="F9:F131" xr:uid="{FE0796D9-6827-4952-B62F-5BB15C1916FC}">
+    <dataValidation type="date" errorStyle="information" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Date" error="Enter a valid Date." sqref="F9:F131" xr:uid="{EDBEE09C-2BC9-4518-A435-C9CD15E17F01}">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Reference" error="Enter a valid id defined in sheet 'borrower data'. If, however, you truly wish to enter a yet-to-be-defined id, click on Ok." sqref="G9:G131" xr:uid="{646F6EA0-03A0-45C8-B9B5-F25EFD9C4E9F}">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Reference" error="Enter a valid id defined in sheet 'borrower data'. If, however, you truly wish to enter a yet-to-be-defined id, click on Ok." sqref="G9:G131" xr:uid="{058FAD69-C714-492B-818B-B313A3E53075}">
       <formula1>'borrower data'!rulescape_ids</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Reference" error="Enter a valid id defined in sheet 'insurance data'. If, however, you truly wish to enter a yet-to-be-defined id, click on Ok." sqref="H9:H131" xr:uid="{FDEB3193-9C9E-429D-9F79-A80A989AFFB0}">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Reference" error="Enter a valid id defined in sheet 'insurance data'. If, however, you truly wish to enter a yet-to-be-defined id, click on Ok." sqref="H9:H131" xr:uid="{6967483E-FF56-4A3E-8100-ABEE5E295421}">
       <formula1>'insurance data'!rulescape_ids</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Reference" error="Enter a valid id defined in sheet 'loan data'. If, however, you truly wish to enter a yet-to-be-defined id, click on Ok." sqref="I9:I131" xr:uid="{37842FE1-9629-481E-A407-7CBC44887BF7}">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Reference" error="Enter a valid id defined in sheet 'loan data'. If, however, you truly wish to enter a yet-to-be-defined id, click on Ok." sqref="I9:I131" xr:uid="{30EB6E07-9703-4CBD-BB2B-AA8DD4E68D88}">
       <formula1>'loan data'!rulescape_ids</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Reference" error="Enter a valid id defined in sheet 'property data'. If, however, you truly wish to enter a yet-to-be-defined id, click on Ok." sqref="J9:J131" xr:uid="{56B9996F-5020-4340-A10F-5024BC90C6C8}">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Reference" error="Enter a valid id defined in sheet 'property data'. If, however, you truly wish to enter a yet-to-be-defined id, click on Ok." sqref="J9:J131" xr:uid="{B65D3D06-6E38-4E71-BEF1-A2700340487B}">
       <formula1>'property data'!rulescape_ids</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Reference" error="Enter a valid id defined in sheet 'purchase data'. If, however, you truly wish to enter a yet-to-be-defined id, click on Ok." sqref="K9:K131" xr:uid="{D3A992A2-35A3-434C-9683-657362564CE1}">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Reference" error="Enter a valid id defined in sheet 'purchase data'. If, however, you truly wish to enter a yet-to-be-defined id, click on Ok." sqref="K9:K131" xr:uid="{003EB907-379E-48A0-A308-3DE709C8DD5C}">
       <formula1>'purchase data'!rulescape_ids</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Reference" error="Enter a valid id defined in sheet 'supplemental loan data'. If, however, you truly wish to enter a yet-to-be-defined id, click on Ok." sqref="M9:M131" xr:uid="{C3CC7418-C45F-411A-AAC9-5FE0AA968CD9}">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Reference" error="Enter a valid id defined in sheet 'supplemental loan data'. If, however, you truly wish to enter a yet-to-be-defined id, click on Ok." sqref="M9:M131" xr:uid="{3BF01BB6-561C-496F-B231-60EC83B1BC2F}">
       <formula1>'supplemental loan data'!rulescape_ids</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="B3" location="'HELP'!A1" display="Click here to access the help sheet" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D12" location="'application data'!B7" tooltip="Navigate to the ref cell in 'application data' worksheet" display="first mortgage application" xr:uid="{F7265BA9-3262-42B2-AADE-10900A651B1E}"/>
-    <hyperlink ref="D15" location="'application data'!B7" tooltip="Navigate to the ref cell in 'application data' worksheet" display="first mortgage application" xr:uid="{9FC79459-3E07-4189-82EB-1C0310D7B672}"/>
-    <hyperlink ref="D18" location="'application data'!B7" tooltip="Navigate to the ref cell in 'application data' worksheet" display="first mortgage application" xr:uid="{C9C3AF97-6FA0-4120-AD96-D130657C0732}"/>
-    <hyperlink ref="D21" location="'application data'!B7" tooltip="Navigate to the ref cell in 'application data' worksheet" display="first mortgage application" xr:uid="{792FCE2C-AD8E-4A3C-8F1C-BED5984BEB97}"/>
-    <hyperlink ref="D23" location="'application data'!B7" tooltip="Navigate to the ref cell in 'application data' worksheet" display="first mortgage application" xr:uid="{BFD5C179-A08A-4699-9C0F-C8C5CA82C36F}"/>
-    <hyperlink ref="G9" location="'borrower data'!B7" tooltip="Navigate to the ref cell in 'borrower data' worksheet" display="John Doe" xr:uid="{2168CADD-B1BB-4DF5-95EE-C32D88AB79DF}"/>
-    <hyperlink ref="G10" location="'borrower data'!B8" tooltip="Navigate to the ref cell in 'borrower data' worksheet" display="Yoeman Smith" xr:uid="{CAE007E1-AF5F-4C3B-B7AE-BFE4A88CD234}"/>
-    <hyperlink ref="G15" location="'borrower data'!B7" tooltip="Navigate to the ref cell in 'borrower data' worksheet" display="John Doe" xr:uid="{9C4BBF9B-F0EC-407C-9F76-8CEE52ED8F15}"/>
-    <hyperlink ref="G16" location="'borrower data'!B8" tooltip="Navigate to the ref cell in 'borrower data' worksheet" display="Yoeman Smith" xr:uid="{87DA2B11-516E-4D18-AEA1-77E91B529A55}"/>
-    <hyperlink ref="G18" location="'borrower data'!B7" tooltip="Navigate to the ref cell in 'borrower data' worksheet" display="John Doe" xr:uid="{BBE5EB88-67BB-4CAE-9605-62A640A1A162}"/>
-    <hyperlink ref="G21" location="'borrower data'!B7" tooltip="Navigate to the ref cell in 'borrower data' worksheet" display="John Doe" xr:uid="{5F2893CA-99DD-4546-9CE0-7B92F6D54407}"/>
-    <hyperlink ref="H9" location="'insurance data'!B7" tooltip="Navigate to the ref cell in 'insurance data' worksheet" display="insurance data 1" xr:uid="{163C8B6F-9916-41AC-AD8A-02C16B821E3A}"/>
-    <hyperlink ref="H10" location="'insurance data'!B8" tooltip="Navigate to the ref cell in 'insurance data' worksheet" display="insurance data 2" xr:uid="{6FABF3C6-FF5E-4CB1-B1E1-9CC888213CCE}"/>
-    <hyperlink ref="H11" location="'insurance data'!B9" tooltip="Navigate to the ref cell in 'insurance data' worksheet" display="insurance data 3" xr:uid="{407510FC-7536-4704-9F28-0E84D755D8AE}"/>
-    <hyperlink ref="H12" location="'insurance data'!B7" tooltip="Navigate to the ref cell in 'insurance data' worksheet" display="insurance data 1" xr:uid="{6A641C4E-E60D-4299-9FAF-F7CA559692EB}"/>
-    <hyperlink ref="H13" location="'insurance data'!B8" tooltip="Navigate to the ref cell in 'insurance data' worksheet" display="insurance data 2" xr:uid="{FDC4949F-8C7B-4E86-95BA-9E58CBDE4C58}"/>
-    <hyperlink ref="H14" location="'insurance data'!B9" tooltip="Navigate to the ref cell in 'insurance data' worksheet" display="insurance data 3" xr:uid="{4D32A49C-095C-40CE-90C2-E56D926B38BA}"/>
-    <hyperlink ref="H15" location="'insurance data'!B7" tooltip="Navigate to the ref cell in 'insurance data' worksheet" display="insurance data 1" xr:uid="{EA5B27C5-2119-426D-BFB8-F6EEC3DB9599}"/>
-    <hyperlink ref="H16" location="'insurance data'!B8" tooltip="Navigate to the ref cell in 'insurance data' worksheet" display="insurance data 2" xr:uid="{F3CCEF22-7270-4DBF-B781-6AF014359E1F}"/>
-    <hyperlink ref="H18" location="'insurance data'!B7" tooltip="Navigate to the ref cell in 'insurance data' worksheet" display="insurance data 1" xr:uid="{65846737-9E52-4EB1-9463-623F5D48AF1B}"/>
-    <hyperlink ref="H19" location="'insurance data'!B8" tooltip="Navigate to the ref cell in 'insurance data' worksheet" display="insurance data 2" xr:uid="{8BDD711B-386F-4C73-A895-BF0485A09CCA}"/>
-    <hyperlink ref="H21" location="'insurance data'!B7" tooltip="Navigate to the ref cell in 'insurance data' worksheet" display="insurance data 1" xr:uid="{70C93E46-5C69-4801-88F3-F23494AE254D}"/>
-    <hyperlink ref="H22" location="'insurance data'!B8" tooltip="Navigate to the ref cell in 'insurance data' worksheet" display="insurance data 2" xr:uid="{5325A35A-4506-4404-A857-F7225D0C9B69}"/>
-    <hyperlink ref="H23" location="'insurance data'!B7" tooltip="Navigate to the ref cell in 'insurance data' worksheet" display="insurance data 1" xr:uid="{E9217B5D-A288-419F-AAD4-D93578F57769}"/>
-    <hyperlink ref="H24" location="'insurance data'!B9" tooltip="Navigate to the ref cell in 'insurance data' worksheet" display="insurance data 3" xr:uid="{8A623978-E378-469E-88FA-A504C164BBCE}"/>
-    <hyperlink ref="I9" location="'loan data'!B7" tooltip="Navigate to the ref cell in 'loan data' worksheet" display="loan data 1" xr:uid="{22CCAB60-790C-4975-93AE-E82DE9C863FC}"/>
-    <hyperlink ref="I12" location="'loan data'!B7" tooltip="Navigate to the ref cell in 'loan data' worksheet" display="loan data 1" xr:uid="{17CDA3A0-258B-48E5-B294-73BF9A78969E}"/>
-    <hyperlink ref="I15" location="'loan data'!B7" tooltip="Navigate to the ref cell in 'loan data' worksheet" display="loan data 1" xr:uid="{002D8558-ACF7-49CE-885D-496A59B84E34}"/>
-    <hyperlink ref="I18" location="'loan data'!B7" tooltip="Navigate to the ref cell in 'loan data' worksheet" display="loan data 1" xr:uid="{150A2C22-5A25-4F9F-AFB6-8581EAAE24DB}"/>
-    <hyperlink ref="I21" location="'loan data'!B9" tooltip="Navigate to the ref cell in 'loan data' worksheet" display="balloon loan data" xr:uid="{7C521936-9D9B-431B-8E09-9132024EE24E}"/>
-    <hyperlink ref="I23" location="'loan data'!B9" tooltip="Navigate to the ref cell in 'loan data' worksheet" display="balloon loan data" xr:uid="{44461C05-FC1C-4A15-BA73-FC88D5068E9E}"/>
-    <hyperlink ref="I24" location="'loan data'!B7" tooltip="Navigate to the ref cell in 'loan data' worksheet" display="loan data 1" xr:uid="{924BA0B3-9A22-461B-9EA5-22F21F0F8E12}"/>
-    <hyperlink ref="J9" location="'property data'!B7" tooltip="Navigate to the ref cell in 'property data' worksheet" display="single home property" xr:uid="{E7B8A969-6EDE-4F93-BDBF-542F8BE06538}"/>
-    <hyperlink ref="J12" location="'property data'!B7" tooltip="Navigate to the ref cell in 'property data' worksheet" display="single home property" xr:uid="{F515FC4E-808F-492D-BAC2-76EB28B35569}"/>
-    <hyperlink ref="J15" location="'property data'!B7" tooltip="Navigate to the ref cell in 'property data' worksheet" display="single home property" xr:uid="{7449B423-9BB8-4972-A1F6-317BE6AA538F}"/>
-    <hyperlink ref="J18" location="'property data'!B7" tooltip="Navigate to the ref cell in 'property data' worksheet" display="single home property" xr:uid="{82B5FB20-8138-4D29-B099-620C1C17BC4E}"/>
-    <hyperlink ref="J21" location="'property data'!B7" tooltip="Navigate to the ref cell in 'property data' worksheet" display="single home property" xr:uid="{3722D3AD-9AA9-496C-836C-E58E4EA30869}"/>
-    <hyperlink ref="J23" location="'property data'!B7" tooltip="Navigate to the ref cell in 'property data' worksheet" display="single home property" xr:uid="{42AF50D6-E3C7-4FF3-AF16-5D9CE5900EBD}"/>
-    <hyperlink ref="K9" location="'purchase data'!B7" tooltip="Navigate to the ref cell in 'purchase data' worksheet" display="purchase data 1" xr:uid="{6B41F653-4145-4D25-B73B-50F2706E3A6B}"/>
-    <hyperlink ref="K12" location="'purchase data'!B7" tooltip="Navigate to the ref cell in 'purchase data' worksheet" display="purchase data 1" xr:uid="{09F2B7C0-B28A-4135-967E-1CFB786F5D3B}"/>
-    <hyperlink ref="K15" location="'purchase data'!B7" tooltip="Navigate to the ref cell in 'purchase data' worksheet" display="purchase data 1" xr:uid="{B6FD6445-F847-45A9-8809-536C4A17F3F8}"/>
-    <hyperlink ref="K18" location="'purchase data'!B7" tooltip="Navigate to the ref cell in 'purchase data' worksheet" display="purchase data 1" xr:uid="{062A467B-272D-4476-82BB-B02598951979}"/>
-    <hyperlink ref="K23" location="'purchase data'!B7" tooltip="Navigate to the ref cell in 'purchase data' worksheet" display="purchase data 1" xr:uid="{AA948541-B25A-4C65-A1AC-DA8ADE555D43}"/>
-    <hyperlink ref="B9" location="'Expected Results'!B9" tooltip="Navigate to the 'Expected Results' worksheet" display="Validation Scenario - no application" xr:uid="{2F17889B-41EA-4CEA-97FE-7AE420C36664}"/>
-    <hyperlink ref="B12" location="'Expected Results'!B10" tooltip="Navigate to the 'Expected Results' worksheet" display="Validation Scenario - no borrowers" xr:uid="{0A05ACD4-994E-47EF-B0AA-123E5EF22A9B}"/>
-    <hyperlink ref="B15" location="'Expected Results'!B11" tooltip="Navigate to the 'Expected Results' worksheet" display="Min Credit Score Scenario" xr:uid="{A4045D70-DE64-4FA6-8546-6DD648E06179}"/>
-    <hyperlink ref="B18" location="'Expected Results'!B12" tooltip="Navigate to the 'Expected Results' worksheet" display="Min Credit Score Scenario - Negative" xr:uid="{5B4B84DB-9AE8-4DD1-BBF0-A3C393A78F3B}"/>
-    <hyperlink ref="B21" location="'Expected Results'!B13" tooltip="Navigate to the 'Expected Results' worksheet" display="Min Property Value Scenario" xr:uid="{805B81F4-81B8-4875-BF0C-C7934087409D}"/>
+    <hyperlink ref="D12" location="'application data'!B7" tooltip="Navigate to the ref cell in 'application data' worksheet" display="first mortgage application" xr:uid="{7E62C764-814D-45C9-8561-4439A6F7B6F1}"/>
+    <hyperlink ref="D15" location="'application data'!B7" tooltip="Navigate to the ref cell in 'application data' worksheet" display="first mortgage application" xr:uid="{0B6C7FAF-E668-489F-ADD3-66422B116C06}"/>
+    <hyperlink ref="D18" location="'application data'!B7" tooltip="Navigate to the ref cell in 'application data' worksheet" display="first mortgage application" xr:uid="{43037F4C-779C-41D4-9922-949F9E02C1EF}"/>
+    <hyperlink ref="D21" location="'application data'!B7" tooltip="Navigate to the ref cell in 'application data' worksheet" display="first mortgage application" xr:uid="{2AD070DB-A32F-40F6-894D-99C15DA5E46E}"/>
+    <hyperlink ref="D23" location="'application data'!B7" tooltip="Navigate to the ref cell in 'application data' worksheet" display="first mortgage application" xr:uid="{4232D027-D733-41FB-B53A-65A584D5BC72}"/>
+    <hyperlink ref="G9" location="'borrower data'!B7" tooltip="Navigate to the ref cell in 'borrower data' worksheet" display="John Doe" xr:uid="{4D6AA581-965B-43AD-99AF-CB7B805EBAD8}"/>
+    <hyperlink ref="G10" location="'borrower data'!B8" tooltip="Navigate to the ref cell in 'borrower data' worksheet" display="Yoeman Smith" xr:uid="{C274193F-6361-439F-A2FA-7E79F189FBD5}"/>
+    <hyperlink ref="G15" location="'borrower data'!B7" tooltip="Navigate to the ref cell in 'borrower data' worksheet" display="John Doe" xr:uid="{9D8CA467-E66B-43E7-8886-2BD2E6374BB7}"/>
+    <hyperlink ref="G16" location="'borrower data'!B8" tooltip="Navigate to the ref cell in 'borrower data' worksheet" display="Yoeman Smith" xr:uid="{3CD27F65-F2C9-41A0-BAEB-80A875948DDC}"/>
+    <hyperlink ref="G18" location="'borrower data'!B7" tooltip="Navigate to the ref cell in 'borrower data' worksheet" display="John Doe" xr:uid="{72732D6D-97B5-4E40-9816-6873DF3E0583}"/>
+    <hyperlink ref="G21" location="'borrower data'!B7" tooltip="Navigate to the ref cell in 'borrower data' worksheet" display="John Doe" xr:uid="{A2F1F6DF-5F48-4FE8-BAC2-8C994BEAD82B}"/>
+    <hyperlink ref="H9" location="'insurance data'!B7" tooltip="Navigate to the ref cell in 'insurance data' worksheet" display="insurance data 1" xr:uid="{B1F80DB1-1925-4A84-BBA6-367EE03F2127}"/>
+    <hyperlink ref="H10" location="'insurance data'!B8" tooltip="Navigate to the ref cell in 'insurance data' worksheet" display="insurance data 2" xr:uid="{E985C3C9-B11B-4DB0-AA29-48FBBDD83848}"/>
+    <hyperlink ref="H11" location="'insurance data'!B9" tooltip="Navigate to the ref cell in 'insurance data' worksheet" display="insurance data 3" xr:uid="{5A2350C2-4101-4AFE-AE53-D0A1E46A9B1C}"/>
+    <hyperlink ref="H12" location="'insurance data'!B7" tooltip="Navigate to the ref cell in 'insurance data' worksheet" display="insurance data 1" xr:uid="{F446AA7C-2E95-4EBF-B14A-B8B99A28F601}"/>
+    <hyperlink ref="H13" location="'insurance data'!B8" tooltip="Navigate to the ref cell in 'insurance data' worksheet" display="insurance data 2" xr:uid="{6E4F83F9-67C6-46A9-8356-7B910879B44B}"/>
+    <hyperlink ref="H14" location="'insurance data'!B9" tooltip="Navigate to the ref cell in 'insurance data' worksheet" display="insurance data 3" xr:uid="{76E45F42-DD0A-4D89-B254-FBC4D00A6F33}"/>
+    <hyperlink ref="H15" location="'insurance data'!B7" tooltip="Navigate to the ref cell in 'insurance data' worksheet" display="insurance data 1" xr:uid="{FE568768-8BA4-47BA-BB9F-017ECB9C5345}"/>
+    <hyperlink ref="H16" location="'insurance data'!B8" tooltip="Navigate to the ref cell in 'insurance data' worksheet" display="insurance data 2" xr:uid="{74CCDCA3-6B0A-4AED-9DD5-F6CA0CF3FFCB}"/>
+    <hyperlink ref="H18" location="'insurance data'!B7" tooltip="Navigate to the ref cell in 'insurance data' worksheet" display="insurance data 1" xr:uid="{6D3A0165-C82F-45D5-84B2-A12D3751BC60}"/>
+    <hyperlink ref="H19" location="'insurance data'!B8" tooltip="Navigate to the ref cell in 'insurance data' worksheet" display="insurance data 2" xr:uid="{E5B2E306-BA64-4C9A-979D-F7F22A566127}"/>
+    <hyperlink ref="H21" location="'insurance data'!B7" tooltip="Navigate to the ref cell in 'insurance data' worksheet" display="insurance data 1" xr:uid="{2A749B43-EC25-4C3A-A18C-BEFA2E53316F}"/>
+    <hyperlink ref="H22" location="'insurance data'!B8" tooltip="Navigate to the ref cell in 'insurance data' worksheet" display="insurance data 2" xr:uid="{FA55304D-21C3-43DE-A7C0-EF5DFF4ACCD3}"/>
+    <hyperlink ref="H23" location="'insurance data'!B13" tooltip="Navigate to the ref cell in 'insurance data' worksheet" display="insurance data 7" xr:uid="{19CE0B1C-6F4A-451B-987A-E577AA8D9D7C}"/>
+    <hyperlink ref="H24" location="'insurance data'!B9" tooltip="Navigate to the ref cell in 'insurance data' worksheet" display="insurance data 3" xr:uid="{DE935C87-537F-4E58-9A58-01DE988BE3C0}"/>
+    <hyperlink ref="I9" location="'loan data'!B7" tooltip="Navigate to the ref cell in 'loan data' worksheet" display="loan data 1" xr:uid="{D4355EC0-D25E-43E5-8C4A-0C5AE7F058D5}"/>
+    <hyperlink ref="I12" location="'loan data'!B7" tooltip="Navigate to the ref cell in 'loan data' worksheet" display="loan data 1" xr:uid="{F99B2575-4CD0-4230-A538-DF7886FAA57A}"/>
+    <hyperlink ref="I15" location="'loan data'!B7" tooltip="Navigate to the ref cell in 'loan data' worksheet" display="loan data 1" xr:uid="{C1DB551B-40DF-47EC-ACCA-EDCBC1284B8C}"/>
+    <hyperlink ref="I18" location="'loan data'!B7" tooltip="Navigate to the ref cell in 'loan data' worksheet" display="loan data 1" xr:uid="{0E76EBD1-7239-4DC5-8E95-3DFA1E8AE2EA}"/>
+    <hyperlink ref="I21" location="'loan data'!B9" tooltip="Navigate to the ref cell in 'loan data' worksheet" display="balloon loan data" xr:uid="{55ACBF44-817B-44A5-A724-A16A290F790F}"/>
+    <hyperlink ref="I23" location="'loan data'!B9" tooltip="Navigate to the ref cell in 'loan data' worksheet" display="balloon loan data" xr:uid="{78DEE240-8AAC-4B3F-9250-452EEC9C9DA5}"/>
+    <hyperlink ref="I24" location="'loan data'!B7" tooltip="Navigate to the ref cell in 'loan data' worksheet" display="loan data 1" xr:uid="{18422242-AB6A-4ECA-BF59-ECFC767D9DE7}"/>
+    <hyperlink ref="J9" location="'property data'!B7" tooltip="Navigate to the ref cell in 'property data' worksheet" display="single home property" xr:uid="{1E8838DD-6DF4-43F9-A846-662D7D367F52}"/>
+    <hyperlink ref="J12" location="'property data'!B7" tooltip="Navigate to the ref cell in 'property data' worksheet" display="single home property" xr:uid="{FCD69677-D086-42C2-8E53-91C05E728A1C}"/>
+    <hyperlink ref="J15" location="'property data'!B7" tooltip="Navigate to the ref cell in 'property data' worksheet" display="single home property" xr:uid="{A29352B5-5CB2-485D-9C3C-5B877CD273FF}"/>
+    <hyperlink ref="J18" location="'property data'!B7" tooltip="Navigate to the ref cell in 'property data' worksheet" display="single home property" xr:uid="{300C5099-B461-4F87-A9B2-926F823B719D}"/>
+    <hyperlink ref="J21" location="'property data'!B7" tooltip="Navigate to the ref cell in 'property data' worksheet" display="single home property" xr:uid="{1A509D4A-00FC-49BE-B1E6-A7FCDD0DFAAA}"/>
+    <hyperlink ref="J23" location="'property data'!B7" tooltip="Navigate to the ref cell in 'property data' worksheet" display="single home property" xr:uid="{A130BA7F-A372-4D98-8DBA-036D5DDB5518}"/>
+    <hyperlink ref="K9" location="'purchase data'!B7" tooltip="Navigate to the ref cell in 'purchase data' worksheet" display="purchase data 1" xr:uid="{2E4FBBED-B404-4542-85B0-0C02B32E70BE}"/>
+    <hyperlink ref="K12" location="'purchase data'!B7" tooltip="Navigate to the ref cell in 'purchase data' worksheet" display="purchase data 1" xr:uid="{97CBD43E-37D2-4B1B-9DF5-BB47D3A323B6}"/>
+    <hyperlink ref="K15" location="'purchase data'!B7" tooltip="Navigate to the ref cell in 'purchase data' worksheet" display="purchase data 1" xr:uid="{A7A2E27E-4685-46F6-8FD8-85CCB7140ADB}"/>
+    <hyperlink ref="K18" location="'purchase data'!B7" tooltip="Navigate to the ref cell in 'purchase data' worksheet" display="purchase data 1" xr:uid="{3907F853-2E24-4353-93D6-36E7EC182CD9}"/>
+    <hyperlink ref="K23" location="'purchase data'!B7" tooltip="Navigate to the ref cell in 'purchase data' worksheet" display="purchase data 1" xr:uid="{1762E49D-5139-4969-A2DD-952E24F290E7}"/>
+    <hyperlink ref="B9" location="'Expected Results'!B9" tooltip="Navigate to the 'Expected Results' worksheet" display="Validation Scenario - no application" xr:uid="{863CFAEC-B239-4C08-89F5-9DE75CDE7168}"/>
+    <hyperlink ref="B12" location="'Expected Results'!B10" tooltip="Navigate to the 'Expected Results' worksheet" display="Validation Scenario - no borrowers" xr:uid="{11308313-3FE9-4D80-A4F4-61F92532CB67}"/>
+    <hyperlink ref="B15" location="'Expected Results'!B11" tooltip="Navigate to the 'Expected Results' worksheet" display="Min Credit Score Scenario" xr:uid="{ED8AC5CA-13C7-466E-ABF8-9B12C37E75C3}"/>
+    <hyperlink ref="B18" location="'Expected Results'!B12" tooltip="Navigate to the 'Expected Results' worksheet" display="Min Credit Score Scenario - Negative" xr:uid="{8CD52E53-938D-45D0-8805-DBFF2A3A6B36}"/>
+    <hyperlink ref="B21" location="'Expected Results'!B13" tooltip="Navigate to the 'Expected Results' worksheet" display="Min Property Value Scenario" xr:uid="{DA752227-8AEF-4C94-A758-104A87E75B68}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -11601,8 +11622,7 @@
   <dimension ref="B2:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N7" sqref="N7"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -11757,16 +11777,16 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L7:L1048576" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>domainD</formula1>
     </dataValidation>
-    <dataValidation type="date" errorStyle="information" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Date" error="Enter a valid Date." sqref="D7:D112" xr:uid="{F5CDC090-20AD-4A9B-9A04-29598CAB03E2}">
+    <dataValidation type="date" errorStyle="information" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Date" error="Enter a valid Date." sqref="D7:D112" xr:uid="{79F5B951-DBEB-4D23-943C-16852D9C6578}">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation type="date" errorStyle="information" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Date" error="Enter a valid Date." sqref="E7:E112" xr:uid="{38D9CA58-CFDE-471B-8306-78BAECBFD53A}">
+    <dataValidation type="date" errorStyle="information" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Date" error="Enter a valid Date." sqref="E7:E112" xr:uid="{F5528378-A6B8-4651-B70B-03D84275389D}">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation type="date" errorStyle="information" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Date" error="Enter a valid Date." sqref="G7:G112" xr:uid="{53FDF4A6-1373-4E90-B9EF-DDECC8FDD807}">
+    <dataValidation type="date" errorStyle="information" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Date" error="Enter a valid Date." sqref="G7:G112" xr:uid="{F9C1ED5B-B734-4684-9A09-27839CE2AB00}">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation type="date" errorStyle="information" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Date" error="Enter a valid Date." sqref="N7:N112" xr:uid="{4EC7D94C-C76F-41AB-B8A6-99DA269FEF95}">
+    <dataValidation type="date" errorStyle="information" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Date" error="Enter a valid Date." sqref="N7:N112" xr:uid="{273B8B1E-86F9-4D27-A348-04FA508177F9}">
       <formula1>1</formula1>
     </dataValidation>
   </dataValidations>
@@ -11784,8 +11804,7 @@
   <dimension ref="B2:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P7" sqref="P7:P31"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -12083,25 +12102,171 @@
         <v>630</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="E11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="E12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="E13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="E14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
+    <row r="11" spans="2:17" s="51" customFormat="1" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="54" t="s">
+        <v>682</v>
+      </c>
+      <c r="C11" s="53">
+        <v>909</v>
+      </c>
+      <c r="D11" s="53">
+        <v>300000</v>
+      </c>
+      <c r="E11" s="55">
+        <v>42369</v>
+      </c>
+      <c r="F11" s="53">
+        <v>2000</v>
+      </c>
+      <c r="G11" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="53" t="s">
+        <v>298</v>
+      </c>
+      <c r="I11" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="M11" s="53" t="s">
+        <v>629</v>
+      </c>
+      <c r="N11" s="53" t="b">
+        <v>1</v>
+      </c>
+      <c r="O11" s="55">
+        <v>42156</v>
+      </c>
+      <c r="P11" s="55">
+        <v>42735</v>
+      </c>
+      <c r="Q11" s="53" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" s="51" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="54" t="s">
+        <v>683</v>
+      </c>
+      <c r="C12" s="53">
+        <v>23</v>
+      </c>
+      <c r="D12" s="53">
+        <v>300000</v>
+      </c>
+      <c r="E12" s="55">
+        <v>42369</v>
+      </c>
+      <c r="F12" s="53">
+        <v>2000</v>
+      </c>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53" t="s">
+        <v>297</v>
+      </c>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53" t="s">
+        <v>629</v>
+      </c>
+      <c r="N12" s="53" t="b">
+        <v>1</v>
+      </c>
+      <c r="O12" s="55">
+        <v>42156</v>
+      </c>
+      <c r="P12" s="55">
+        <v>42735</v>
+      </c>
+      <c r="Q12" s="53" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="60" t="s">
+        <v>684</v>
+      </c>
+      <c r="C13" s="53">
+        <v>3400</v>
+      </c>
+      <c r="D13" s="53">
+        <v>300000</v>
+      </c>
+      <c r="E13" s="55">
+        <v>42369</v>
+      </c>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53" t="s">
+        <v>299</v>
+      </c>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53" t="s">
+        <v>629</v>
+      </c>
+      <c r="N13" s="53" t="b">
+        <v>1</v>
+      </c>
+      <c r="O13" s="55">
+        <v>42156</v>
+      </c>
+      <c r="P13" s="55">
+        <v>42735</v>
+      </c>
+      <c r="Q13" s="53" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" s="51" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="54" t="s">
+        <v>685</v>
+      </c>
+      <c r="C14" s="53">
+        <v>400</v>
+      </c>
+      <c r="D14" s="53">
+        <v>10000</v>
+      </c>
+      <c r="E14" s="55">
+        <v>42369</v>
+      </c>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53" t="s">
+        <v>299</v>
+      </c>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53" t="s">
+        <v>629</v>
+      </c>
+      <c r="N14" s="53" t="b">
+        <v>1</v>
+      </c>
+      <c r="O14" s="55">
+        <v>42156</v>
+      </c>
+      <c r="P14" s="55">
+        <v>42735</v>
+      </c>
+      <c r="Q14" s="53" t="s">
+        <v>630</v>
+      </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E15" s="1"/>
@@ -12175,6 +12340,7 @@
       <c r="P31" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H1048576" xr:uid="{00000000-0002-0000-0A00-000000000000}">
       <formula1>domainN</formula1>
@@ -12182,25 +12348,27 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N7:N1048576" xr:uid="{00000000-0002-0000-0A00-000001000000}">
       <formula1>domainB</formula1>
     </dataValidation>
-    <dataValidation type="date" errorStyle="information" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Date" error="Enter a valid Date." sqref="E7:E115" xr:uid="{2E744D45-916C-497A-AE5E-FD2F9A505CA7}">
+    <dataValidation type="date" errorStyle="information" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Date" error="Enter a valid Date." sqref="E7:E119" xr:uid="{B8843BC6-B66C-4F3C-9BC7-D0013A3EB545}">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation type="date" errorStyle="information" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Date" error="Enter a valid Date." sqref="O7:O115" xr:uid="{1062A1F7-FD6F-4B97-A283-40298E9E35E2}">
+    <dataValidation type="date" errorStyle="information" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Date" error="Enter a valid Date." sqref="O7:O119" xr:uid="{C1A97B59-3F1D-42D7-8759-A14BE160F354}">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation type="date" errorStyle="information" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Date" error="Enter a valid Date." sqref="P7:P115" xr:uid="{7B537158-2582-4A65-A1FE-0165CC62C565}">
+    <dataValidation type="date" errorStyle="information" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Date" error="Enter a valid Date." sqref="P7:P119" xr:uid="{12B28F09-DBC5-48EF-A0F7-61A50E6319C5}">
       <formula1>1</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="B3" location="'HELP'!A1" display="Click here to access the help sheet" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
-    <hyperlink ref="B7" location="'Scenarios'!H23" tooltip="Navigate to the referencing cell in 'Scenarios' worksheet" display="insurance data 1" xr:uid="{61AEF155-CE09-4BD0-8FD8-1FCF91D8896A}"/>
-    <hyperlink ref="B8" location="'Scenarios'!H22" tooltip="Navigate to the referencing cell in 'Scenarios' worksheet" display="insurance data 2" xr:uid="{037E3C9C-C7F4-4F57-8DD7-2876C80FAD02}"/>
-    <hyperlink ref="B9" location="'Scenarios'!H24" tooltip="Navigate to the referencing cell in 'Scenarios' worksheet" display="insurance data 3" xr:uid="{B0385E39-D401-4524-9A74-F071C68DEDD6}"/>
+    <hyperlink ref="B7" location="'Scenarios'!H21" tooltip="Navigate to the referencing cell in 'Scenarios' worksheet" display="insurance data 1" xr:uid="{252BF9CA-41C9-4B6F-9F58-7DA64DC6C30F}"/>
+    <hyperlink ref="B8" location="'Scenarios'!H22" tooltip="Navigate to the referencing cell in 'Scenarios' worksheet" display="insurance data 2" xr:uid="{2A288EA8-597B-419B-87BA-FBA83C7D3BBA}"/>
+    <hyperlink ref="B9" location="'Scenarios'!H24" tooltip="Navigate to the referencing cell in 'Scenarios' worksheet" display="insurance data 3" xr:uid="{29CA36DB-8135-4EB6-9D24-B23CC747F664}"/>
+    <hyperlink ref="B13" location="'Scenarios'!H23" tooltip="Navigate to the referencing cell in 'Scenarios' worksheet" display="insurance data 7" xr:uid="{9FDA0EF9-8993-4759-9C59-E4A0521F51E9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -12208,9 +12376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="B2:AN10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AN7" sqref="AN7:AN10"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -12832,24 +12999,24 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC7:AC1048576" xr:uid="{00000000-0002-0000-0B00-000004000000}">
       <formula1>domainP</formula1>
     </dataValidation>
-    <dataValidation type="date" errorStyle="information" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Date" error="Enter a valid Date." sqref="S7:S115" xr:uid="{6FDE7595-DD3C-45FE-8CF2-2A72DB523C36}">
+    <dataValidation type="date" errorStyle="information" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Date" error="Enter a valid Date." sqref="S7:S115" xr:uid="{1B331235-DADD-460B-883B-7CE99F8A51B3}">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Reference" error="Enter a valid id defined in sheet 'loan usage'. If, however, you truly wish to enter a yet-to-be-defined id, click on Ok." sqref="Z7:Z115" xr:uid="{3996EBDF-5006-49A9-86A2-ABBCBCBCAD58}">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Reference" error="Enter a valid id defined in sheet 'loan usage'. If, however, you truly wish to enter a yet-to-be-defined id, click on Ok." sqref="Z7:Z115" xr:uid="{AA356047-72C7-472A-8DDC-5DD46F91206F}">
       <formula1>'loan usage'!rulescape_ids</formula1>
     </dataValidation>
-    <dataValidation type="date" errorStyle="information" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Date" error="Enter a valid Date." sqref="AA7:AA115" xr:uid="{12CCFE4C-27A1-4479-AE0E-45A56A362205}">
+    <dataValidation type="date" errorStyle="information" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Date" error="Enter a valid Date." sqref="AA7:AA115" xr:uid="{413525AA-CA47-495A-BA10-37C0C391BB5E}">
       <formula1>1</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="B3" location="'HELP'!A1" display="Click here to access the help sheet" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
-    <hyperlink ref="Z7" location="'loan usage'!B7" tooltip="Navigate to the ref cell in 'loan usage' worksheet" display="loan usage 1" xr:uid="{D283EB31-B0F7-4BFC-92BB-2C703459669A}"/>
-    <hyperlink ref="Z8" location="'loan usage'!B8" tooltip="Navigate to the ref cell in 'loan usage' worksheet" display="loan usage 2" xr:uid="{D77F4A17-24D1-42E0-B0F3-E8F1CA48F8EF}"/>
-    <hyperlink ref="Z9" location="'loan usage'!B7" tooltip="Navigate to the ref cell in 'loan usage' worksheet" display="loan usage 1" xr:uid="{766606DF-2B68-464B-878A-E045FDA4DE74}"/>
-    <hyperlink ref="Z10" location="'loan usage'!B8" tooltip="Navigate to the ref cell in 'loan usage' worksheet" display="loan usage 2" xr:uid="{CA5735E4-E614-4741-9D7F-D308695A289E}"/>
-    <hyperlink ref="B7" location="'Scenarios'!I24" tooltip="Navigate to the referencing cell in 'Scenarios' worksheet" display="loan data 1" xr:uid="{22DE104A-A701-4174-BB76-221B9CE24935}"/>
-    <hyperlink ref="B9" location="'Scenarios'!I23" tooltip="Navigate to the referencing cell in 'Scenarios' worksheet" display="balloon loan data" xr:uid="{B7B1D6DC-2754-4CFB-855E-64CE099779A8}"/>
+    <hyperlink ref="Z7" location="'loan usage'!B7" tooltip="Navigate to the ref cell in 'loan usage' worksheet" display="loan usage 1" xr:uid="{CF3CFC72-5330-4592-A75A-492F0CA24DCE}"/>
+    <hyperlink ref="Z8" location="'loan usage'!B8" tooltip="Navigate to the ref cell in 'loan usage' worksheet" display="loan usage 2" xr:uid="{C1C937D8-B91B-48A1-A4ED-0C83668E4D78}"/>
+    <hyperlink ref="Z9" location="'loan usage'!B7" tooltip="Navigate to the ref cell in 'loan usage' worksheet" display="loan usage 1" xr:uid="{14E51DFC-EE3C-4954-B6C3-1054EC5A3308}"/>
+    <hyperlink ref="Z10" location="'loan usage'!B8" tooltip="Navigate to the ref cell in 'loan usage' worksheet" display="loan usage 2" xr:uid="{D218DB57-1475-4572-A144-C19ED45BC70B}"/>
+    <hyperlink ref="B7" location="'Scenarios'!I24" tooltip="Navigate to the referencing cell in 'Scenarios' worksheet" display="loan data 1" xr:uid="{C793CE93-FC45-4059-B7D9-168234FD1045}"/>
+    <hyperlink ref="B9" location="'Scenarios'!I23" tooltip="Navigate to the referencing cell in 'Scenarios' worksheet" display="balloon loan data" xr:uid="{82BF8489-45B6-4A10-A539-A8C7C3A96EA8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -12935,8 +13102,8 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="B3" location="'HELP'!A1" display="Click here to access the help sheet" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
-    <hyperlink ref="B7" location="'loan data'!Z9" tooltip="Navigate to the referencing cell in 'loan data' worksheet" display="loan usage 1" xr:uid="{3C1B30E4-2DC0-4863-88C1-D54F1F9AD161}"/>
-    <hyperlink ref="B8" location="'loan data'!Z10" tooltip="Navigate to the referencing cell in 'loan data' worksheet" display="loan usage 2" xr:uid="{B2D1ECD6-25FE-45D6-AF56-CE84A2C32BC0}"/>
+    <hyperlink ref="B7" location="'loan data'!Z9" tooltip="Navigate to the referencing cell in 'loan data' worksheet" display="loan usage 1" xr:uid="{8B5E4AF3-474D-4D71-AFD4-50E1A6C34BAC}"/>
+    <hyperlink ref="B8" location="'loan data'!Z10" tooltip="Navigate to the referencing cell in 'loan data' worksheet" display="loan usage 2" xr:uid="{08A2D17B-6BFD-450E-AC86-96767218E9A4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -12946,11 +13113,13 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFE9967A"/>
+  </sheetPr>
   <dimension ref="B2:AJ7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AJ7" sqref="AJ7"/>
+      <selection activeCell="AJ7" sqref="AJ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -13262,7 +13431,7 @@
       <c r="Q7" s="53">
         <v>68777</v>
       </c>
-      <c r="R7" s="55">
+      <c r="R7" s="61">
         <v>42004</v>
       </c>
       <c r="S7" s="53" t="b">
@@ -13337,17 +13506,17 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG7:AG1048576" xr:uid="{00000000-0002-0000-0D00-00000A000000}">
       <formula1>domainU</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Reference" error="Enter a valid id defined in sheet 'postal address'. If, however, you truly wish to enter a yet-to-be-defined id, click on Ok." sqref="C7:C112" xr:uid="{8D0278BC-5F8A-4481-8AE0-8DDB7EC28B5D}">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Reference" error="Enter a valid id defined in sheet 'postal address'. If, however, you truly wish to enter a yet-to-be-defined id, click on Ok." sqref="C7:C112" xr:uid="{18563A98-1FA8-4E89-83B6-A9DB1668EFFB}">
       <formula1>'postal address'!rulescape_ids</formula1>
     </dataValidation>
-    <dataValidation type="date" errorStyle="information" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Date" error="Enter a valid Date." sqref="R7:R112" xr:uid="{1975544A-478E-40B4-8189-AC59AB2926D5}">
+    <dataValidation type="date" errorStyle="information" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Date" error="Enter a valid Date." sqref="R7:R112" xr:uid="{CC3F384E-B9F7-47F8-BAEE-3D190DAAA37B}">
       <formula1>1</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="B3" location="'HELP'!A1" display="Click here to access the help sheet" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
-    <hyperlink ref="C7" location="'postal address'!B7" tooltip="Navigate to the ref cell in 'postal address' worksheet" display="Home Address 1" xr:uid="{D49D0DEE-9FEE-4F74-BFBB-80F173F1FC31}"/>
-    <hyperlink ref="B7" location="'Scenarios'!J23" tooltip="Navigate to the referencing cell in 'Scenarios' worksheet" display="single home property" xr:uid="{82A96BFC-556A-4386-B940-CCAC515018F3}"/>
+    <hyperlink ref="C7" location="'postal address'!B7" tooltip="Navigate to the ref cell in 'postal address' worksheet" display="Home Address 1" xr:uid="{553C1E63-04F7-40D8-B366-595F5F8AA62C}"/>
+    <hyperlink ref="B7" location="'Scenarios'!J23" tooltip="Navigate to the referencing cell in 'Scenarios' worksheet" display="single home property" xr:uid="{49437C6E-7AD5-4DDD-BD7C-BD613786BBFB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13357,11 +13526,13 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFE9967A"/>
+  </sheetPr>
   <dimension ref="B2:W35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U7" sqref="U7:U35"/>
+      <selection activeCell="U7" sqref="U7:U35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -13562,19 +13733,19 @@
       <c r="J7" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="K7" s="55">
+      <c r="K7" s="61">
         <v>42156</v>
       </c>
       <c r="L7" s="53">
         <v>320000</v>
       </c>
-      <c r="M7" s="55">
+      <c r="M7" s="61">
         <v>53114</v>
       </c>
       <c r="N7" s="53">
         <v>248.87</v>
       </c>
-      <c r="O7" s="55">
+      <c r="O7" s="61">
         <v>42186</v>
       </c>
       <c r="P7" s="53">
@@ -13682,19 +13853,19 @@
       <c r="J10" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="K10" s="55">
+      <c r="K10" s="61">
         <v>42156</v>
       </c>
       <c r="L10" s="53">
         <v>320000</v>
       </c>
-      <c r="M10" s="55">
+      <c r="M10" s="61">
         <v>53114</v>
       </c>
       <c r="N10" s="53">
         <v>248.87</v>
       </c>
-      <c r="O10" s="55">
+      <c r="O10" s="61">
         <v>42186</v>
       </c>
       <c r="P10" s="53">
@@ -13871,40 +14042,40 @@
     </row>
   </sheetData>
   <dataValidations count="8">
-    <dataValidation type="date" errorStyle="information" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Date" error="Enter a valid Date." sqref="D7:D117" xr:uid="{E749B794-C3BB-4570-B853-30AD5A6DFF76}">
+    <dataValidation type="date" errorStyle="information" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Date" error="Enter a valid Date." sqref="D7:D117" xr:uid="{46D0DB44-E115-42D3-B604-CBD5E013B271}">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation type="date" errorStyle="information" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Date" error="Enter a valid Date." sqref="F7:F117" xr:uid="{2B42462B-4EBC-43FC-83AA-6F0DB2C5404C}">
+    <dataValidation type="date" errorStyle="information" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Date" error="Enter a valid Date." sqref="F7:F117" xr:uid="{3939062F-87B6-4098-A8AD-48EB168567DE}">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation type="date" errorStyle="information" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Date" error="Enter a valid Date." sqref="K7:K117" xr:uid="{42B68D42-9E39-489F-ACDA-3A38895CC5B7}">
+    <dataValidation type="date" errorStyle="information" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Date" error="Enter a valid Date." sqref="K7:K117" xr:uid="{A76E3318-7BE4-4E2E-AF18-954C1155B38F}">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation type="date" errorStyle="information" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Date" error="Enter a valid Date." sqref="M7:M117" xr:uid="{D477675F-4EE5-43EF-B336-F5C54C0E210F}">
+    <dataValidation type="date" errorStyle="information" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Date" error="Enter a valid Date." sqref="M7:M117" xr:uid="{018081B6-025A-4B49-AF7D-F12A8664E145}">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation type="date" errorStyle="information" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Date" error="Enter a valid Date." sqref="O7:O117" xr:uid="{9D241C1F-DB7A-4DB7-9D8F-134C4908D291}">
+    <dataValidation type="date" errorStyle="information" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Date" error="Enter a valid Date." sqref="O7:O117" xr:uid="{F3DCAE56-33C7-4653-A2B0-F91D29211C6A}">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Reference" error="Enter a valid id defined in sheet 'payment data'. If, however, you truly wish to enter a yet-to-be-defined id, click on Ok." sqref="Q7:Q117" xr:uid="{1EC2E0CC-E08B-4E95-8468-BE443F6EA39C}">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Reference" error="Enter a valid id defined in sheet 'payment data'. If, however, you truly wish to enter a yet-to-be-defined id, click on Ok." sqref="Q7:Q117" xr:uid="{38D8DACF-0492-4BDB-BECC-F6E5AC2E3E68}">
       <formula1>'payment data'!rulescape_ids</formula1>
     </dataValidation>
-    <dataValidation type="date" errorStyle="information" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Date" error="Enter a valid Date." sqref="U7:U117" xr:uid="{4237CBEB-29ED-440D-8500-A82E9FC9C27E}">
+    <dataValidation type="date" errorStyle="information" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Date" error="Enter a valid Date." sqref="U7:U117" xr:uid="{5303FCD3-3108-462B-8268-6DF8CD9C6581}">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Reference" error="Enter a valid id defined in sheet 'transaction fee data'. If, however, you truly wish to enter a yet-to-be-defined id, click on Ok." sqref="V7:V117" xr:uid="{F33D03DE-BAF8-40C5-9BB8-090C0F1E94CB}">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Reference" error="Enter a valid id defined in sheet 'transaction fee data'. If, however, you truly wish to enter a yet-to-be-defined id, click on Ok." sqref="V7:V117" xr:uid="{92935268-E0A1-429D-855A-9942CE879C76}">
       <formula1>'transaction fee data'!rulescape_ids</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="B3" location="'HELP'!A1" display="Click here to access the help sheet" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
-    <hyperlink ref="Q7" location="'payment data'!B7" tooltip="Navigate to the ref cell in 'payment data' worksheet" display="payment data 1" xr:uid="{D35D9D40-1D84-46D4-840A-2BF96B74329A}"/>
-    <hyperlink ref="Q8" location="'payment data'!B8" tooltip="Navigate to the ref cell in 'payment data' worksheet" display="payment data 2" xr:uid="{4F8E7AFF-9FF2-45D9-8A3D-37821DBF6F16}"/>
-    <hyperlink ref="Q9" location="'payment data'!B9" tooltip="Navigate to the ref cell in 'payment data' worksheet" display="payment data 3" xr:uid="{62E4AE33-AFDF-470E-8805-1ED34F1B8E3B}"/>
-    <hyperlink ref="Q10" location="'payment data'!B7" tooltip="Navigate to the ref cell in 'payment data' worksheet" display="payment data 1" xr:uid="{87F4E5B2-165E-4955-A6AC-F4185DC43592}"/>
-    <hyperlink ref="Q11" location="'payment data'!B8" tooltip="Navigate to the ref cell in 'payment data' worksheet" display="payment data 2" xr:uid="{D35987E5-2259-4C00-95A0-D1F620A4F2F2}"/>
-    <hyperlink ref="Q12" location="'payment data'!B9" tooltip="Navigate to the ref cell in 'payment data' worksheet" display="payment data 3" xr:uid="{618469CD-F2D0-45DD-8AA4-23AD846046E5}"/>
-    <hyperlink ref="B7" location="'Scenarios'!K23" tooltip="Navigate to the referencing cell in 'Scenarios' worksheet" display="purchase data 1" xr:uid="{E483B855-C8F0-4DE1-ABF5-1DDC45D030F2}"/>
+    <hyperlink ref="Q7" location="'payment data'!B7" tooltip="Navigate to the ref cell in 'payment data' worksheet" display="payment data 1" xr:uid="{2C40DC75-0D59-4549-BF7A-346CE532B0F5}"/>
+    <hyperlink ref="Q8" location="'payment data'!B8" tooltip="Navigate to the ref cell in 'payment data' worksheet" display="payment data 2" xr:uid="{8581E585-967D-4F6B-9121-DFB4150883A2}"/>
+    <hyperlink ref="Q9" location="'payment data'!B9" tooltip="Navigate to the ref cell in 'payment data' worksheet" display="payment data 3" xr:uid="{DD68EC08-539B-43B9-A4F0-5A1CD85095C0}"/>
+    <hyperlink ref="Q10" location="'payment data'!B7" tooltip="Navigate to the ref cell in 'payment data' worksheet" display="payment data 1" xr:uid="{B05999BC-26E6-4947-B59F-169AC26291A2}"/>
+    <hyperlink ref="Q11" location="'payment data'!B8" tooltip="Navigate to the ref cell in 'payment data' worksheet" display="payment data 2" xr:uid="{F47F5A08-0880-4AC2-AB74-F5C718E7A2D1}"/>
+    <hyperlink ref="Q12" location="'payment data'!B9" tooltip="Navigate to the ref cell in 'payment data' worksheet" display="payment data 3" xr:uid="{A93EA92C-CB05-4943-8E25-2EDBFD8F8557}"/>
+    <hyperlink ref="B7" location="'Scenarios'!K23" tooltip="Navigate to the referencing cell in 'Scenarios' worksheet" display="purchase data 1" xr:uid="{593C68DB-75E0-4ECB-AA00-305EF4F02E11}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -14043,15 +14214,15 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="date" errorStyle="information" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Date" error="Enter a valid Date." sqref="C7:C114" xr:uid="{FCEE4801-2E97-420D-8DD8-B24AF8E613FC}">
+    <dataValidation type="date" errorStyle="information" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Date" error="Enter a valid Date." sqref="C7:C114" xr:uid="{F7553486-AC5D-428A-A1A7-230BBEEE2935}">
       <formula1>1</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="B3" location="'HELP'!A1" display="Click here to access the help sheet" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
-    <hyperlink ref="B7" location="'purchase data'!Q10" tooltip="Navigate to the referencing cell in 'purchase data' worksheet" display="payment data 1" xr:uid="{3D509E40-6443-45A6-B8EC-7C9B52D788B7}"/>
-    <hyperlink ref="B8" location="'purchase data'!Q11" tooltip="Navigate to the referencing cell in 'purchase data' worksheet" display="payment data 2" xr:uid="{B432B815-6076-47AE-9BAE-C5F3AA08CADC}"/>
-    <hyperlink ref="B9" location="'purchase data'!Q12" tooltip="Navigate to the referencing cell in 'purchase data' worksheet" display="payment data 3" xr:uid="{8206B929-6320-4561-994D-DC7C67F33B28}"/>
+    <hyperlink ref="B7" location="'purchase data'!Q10" tooltip="Navigate to the referencing cell in 'purchase data' worksheet" display="payment data 1" xr:uid="{2CE5F30C-7394-44E3-A462-F66316CB2E86}"/>
+    <hyperlink ref="B8" location="'purchase data'!Q11" tooltip="Navigate to the referencing cell in 'purchase data' worksheet" display="payment data 2" xr:uid="{EF701AC7-3902-4B1F-9950-403EADD84F19}"/>
+    <hyperlink ref="B9" location="'purchase data'!Q12" tooltip="Navigate to the referencing cell in 'purchase data' worksheet" display="payment data 3" xr:uid="{AA6475E0-FFB8-46CA-861B-2FE0003D7FD0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -14237,13 +14408,13 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Reference" error="Enter a valid id defined in sheet 'application data'. If, however, you truly wish to enter a yet-to-be-defined id, click on Ok." sqref="C7:C112" xr:uid="{F7D65487-41D9-4439-86F0-4A1E91541DAD}">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Reference" error="Enter a valid id defined in sheet 'application data'. If, however, you truly wish to enter a yet-to-be-defined id, click on Ok." sqref="C7:C112" xr:uid="{5D90611A-1C4E-447E-9F34-766ECFB28492}">
       <formula1>'application data'!rulescape_ids</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Reference" error="Enter a valid id defined in sheet 'loan data'. If, however, you truly wish to enter a yet-to-be-defined id, click on Ok." sqref="H7:H112" xr:uid="{22640070-9935-45A3-845B-22CDAB58F8C9}">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Reference" error="Enter a valid id defined in sheet 'loan data'. If, however, you truly wish to enter a yet-to-be-defined id, click on Ok." sqref="H7:H112" xr:uid="{3E4ABEC9-F07A-4C81-9F5F-F42CF258006A}">
       <formula1>'loan data'!rulescape_ids</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Reference" error="Enter a valid id defined in sheet 'purchase data'. If, however, you truly wish to enter a yet-to-be-defined id, click on Ok." sqref="I7:I112" xr:uid="{624FBEE9-514F-4F9E-BA28-3DB30DAB380E}">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Reference" error="Enter a valid id defined in sheet 'purchase data'. If, however, you truly wish to enter a yet-to-be-defined id, click on Ok." sqref="I7:I112" xr:uid="{BC48DCC6-5785-4EA9-B5BC-E06459BBFD02}">
       <formula1>'purchase data'!rulescape_ids</formula1>
     </dataValidation>
   </dataValidations>
@@ -14426,24 +14597,24 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:E1048576" xr:uid="{00000000-0002-0000-1200-000000000000}">
       <formula1>domainB</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Reference" error="Enter a valid id defined in sheet 'Exp-compliance issue'. If, however, you truly wish to enter a yet-to-be-defined id, click on Ok." sqref="C9:C120" xr:uid="{E2918CAF-1B5B-497B-9311-4A34261B705B}">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Reference" error="Enter a valid id defined in sheet 'Exp-compliance issue'. If, however, you truly wish to enter a yet-to-be-defined id, click on Ok." sqref="C9:C120" xr:uid="{8A2F6F8A-CF34-4B98-A132-BE23E53B82B2}">
       <formula1>'Exp-compliance issue'!rulescape_ids</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Reference" error="Enter a valid id defined in sheet 'Exp-rules message'. If, however, you truly wish to enter a yet-to-be-defined id, click on Ok." sqref="F9:F120" xr:uid="{DE99A777-887D-4817-96B7-4B8E306CFFE3}">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Reference" error="Enter a valid id defined in sheet 'Exp-rules message'. If, however, you truly wish to enter a yet-to-be-defined id, click on Ok." sqref="F9:F120" xr:uid="{AE1865D4-7817-416B-B1D3-1356E3BFE8EF}">
       <formula1>'Exp-rules message'!rulescape_ids</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="B3" location="'HELP'!A1" display="Click here to access the help sheet" xr:uid="{00000000-0004-0000-1200-000000000000}"/>
-    <hyperlink ref="C11" location="'Exp-compliance issue'!B7" tooltip="Navigate to the ref cell in 'Exp-compliance issue' worksheet" display="min credit score compliance issue" xr:uid="{E41A93CE-2916-4340-BFA8-8E1EDF5F121D}"/>
-    <hyperlink ref="C13" location="'Exp-compliance issue'!B8" tooltip="Navigate to the ref cell in 'Exp-compliance issue' worksheet" display="min property val compliance issue" xr:uid="{E8EE46AA-8074-4633-863B-C1CE7BE8DE7A}"/>
-    <hyperlink ref="F9" location="'Exp-rules message'!B7" tooltip="Navigate to the ref cell in 'Exp-rules message' worksheet" display="invalid data message" xr:uid="{A7E5BA04-2A14-4BD2-9FCE-D976FC3D9D97}"/>
-    <hyperlink ref="F10" location="'Exp-rules message'!B7" tooltip="Navigate to the ref cell in 'Exp-rules message' worksheet" display="invalid data message" xr:uid="{6F23975A-A155-494B-96E7-A5E0A8591C85}"/>
-    <hyperlink ref="B9" location="'Scenarios'!B9" tooltip="Navigate to the referencing cell in 'Scenarios' worksheet" display="Validation Scenario - no application" xr:uid="{4A609604-6F4F-4A92-90C4-309950BAE4AA}"/>
-    <hyperlink ref="B10" location="'Scenarios'!B12" tooltip="Navigate to the referencing cell in 'Scenarios' worksheet" display="Validation Scenario - no borrowers" xr:uid="{634E2BE6-69FE-44D9-8674-D77EA9785BBB}"/>
-    <hyperlink ref="B11" location="'Scenarios'!B15" tooltip="Navigate to the referencing cell in 'Scenarios' worksheet" display="Min Credit Score Scenario" xr:uid="{A1481470-2797-48B1-B481-512A1531EEB9}"/>
-    <hyperlink ref="B12" location="'Scenarios'!B18" tooltip="Navigate to the referencing cell in 'Scenarios' worksheet" display="Min Credit Score Scenario - Negative" xr:uid="{EB750EE3-1B99-4EE6-B169-D36E040D657E}"/>
-    <hyperlink ref="B13" location="'Scenarios'!B21" tooltip="Navigate to the referencing cell in 'Scenarios' worksheet" display="Min Property Value Scenario" xr:uid="{9DBE8830-E493-4E4D-A73B-49A9F4AF873C}"/>
+    <hyperlink ref="C11" location="'Exp-compliance issue'!B7" tooltip="Navigate to the ref cell in 'Exp-compliance issue' worksheet" display="min credit score compliance issue" xr:uid="{E89C9A10-E744-441E-8AC5-4CC218938EB4}"/>
+    <hyperlink ref="C13" location="'Exp-compliance issue'!B8" tooltip="Navigate to the ref cell in 'Exp-compliance issue' worksheet" display="min property val compliance issue" xr:uid="{03489CAF-5D2C-4091-BAF1-CF83BFD2D568}"/>
+    <hyperlink ref="F9" location="'Exp-rules message'!B7" tooltip="Navigate to the ref cell in 'Exp-rules message' worksheet" display="invalid data message" xr:uid="{A900E3B6-0C21-4F1B-BFE5-85B71F3BBC82}"/>
+    <hyperlink ref="F10" location="'Exp-rules message'!B7" tooltip="Navigate to the ref cell in 'Exp-rules message' worksheet" display="invalid data message" xr:uid="{F8A196F7-7902-4516-A8DB-D9A95C6B4E04}"/>
+    <hyperlink ref="B9" location="'Scenarios'!B9" tooltip="Navigate to the referencing cell in 'Scenarios' worksheet" display="Validation Scenario - no application" xr:uid="{5C4F9719-E232-4FA5-8CD9-AE8D955560B6}"/>
+    <hyperlink ref="B10" location="'Scenarios'!B12" tooltip="Navigate to the referencing cell in 'Scenarios' worksheet" display="Validation Scenario - no borrowers" xr:uid="{0FE3493E-AAF9-443A-8713-BDAE3BD50F80}"/>
+    <hyperlink ref="B11" location="'Scenarios'!B15" tooltip="Navigate to the referencing cell in 'Scenarios' worksheet" display="Min Credit Score Scenario" xr:uid="{903EAABA-966B-4A11-812D-1B241D5AD5CF}"/>
+    <hyperlink ref="B12" location="'Scenarios'!B18" tooltip="Navigate to the referencing cell in 'Scenarios' worksheet" display="Min Credit Score Scenario - Negative" xr:uid="{898618AD-56E8-422A-8953-86EF2617609E}"/>
+    <hyperlink ref="B13" location="'Scenarios'!B21" tooltip="Navigate to the referencing cell in 'Scenarios' worksheet" display="Min Property Value Scenario" xr:uid="{226D6981-A089-4CAF-BE2C-7450A112CA0C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -14971,8 +15142,8 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" location="'HELP'!A1" display="Click here to access the help sheet" xr:uid="{00000000-0004-0000-1400-000000000000}"/>
-    <hyperlink ref="B7" location="'Expected Results'!C11" tooltip="Navigate to the referencing cell in 'Expected Results' worksheet" display="min credit score compliance issue" xr:uid="{F6B55221-ACEC-4C49-8F54-9A722F9286B6}"/>
-    <hyperlink ref="B8" location="'Expected Results'!C13" tooltip="Navigate to the referencing cell in 'Expected Results' worksheet" display="min property val compliance issue" xr:uid="{0281D51E-2896-4DCD-BA5A-2EA1ECB1BE80}"/>
+    <hyperlink ref="B7" location="'Expected Results'!C11" tooltip="Navigate to the referencing cell in 'Expected Results' worksheet" display="min credit score compliance issue" xr:uid="{D7CAA79E-E0C6-425B-AC2A-592344255737}"/>
+    <hyperlink ref="B8" location="'Expected Results'!C13" tooltip="Navigate to the referencing cell in 'Expected Results' worksheet" display="min property val compliance issue" xr:uid="{EFBAD4B1-0EB6-4745-8EBD-316B22E605B8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15057,7 +15228,7 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="B3" location="'HELP'!A1" display="Click here to access the help sheet" xr:uid="{00000000-0004-0000-1500-000000000000}"/>
-    <hyperlink ref="B7" location="'Expected Results'!F10" tooltip="Navigate to the referencing cell in 'Expected Results' worksheet" display="invalid data message" xr:uid="{16EAB8E0-9E36-415D-BAD1-7C0905B21310}"/>
+    <hyperlink ref="B7" location="'Expected Results'!F10" tooltip="Navigate to the referencing cell in 'Expected Results' worksheet" display="invalid data message" xr:uid="{4134078F-41A4-417D-91E5-EE90F0A34929}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15572,8 +15743,7 @@
   <dimension ref="B2:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H22" sqref="H22"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -15925,29 +16095,29 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N7:N1048576" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>domainD</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Reference" error="Enter a valid id defined in sheet 'application time stamp'. If, however, you truly wish to enter a yet-to-be-defined id, click on Ok." sqref="D7:D121" xr:uid="{B493DFB8-1232-443E-8890-668F8443237B}">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Reference" error="Enter a valid id defined in sheet 'application time stamp'. If, however, you truly wish to enter a yet-to-be-defined id, click on Ok." sqref="D7:D121" xr:uid="{F8728282-6AF3-49A6-926E-6D5003053A77}">
       <formula1>'application time stamp'!rulescape_ids</formula1>
     </dataValidation>
-    <dataValidation type="date" errorStyle="information" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Date" error="Enter a valid Date." sqref="K7:K121" xr:uid="{8ACDADF0-DA19-4406-A83F-59C11E8C365B}">
+    <dataValidation type="date" errorStyle="information" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Date" error="Enter a valid Date." sqref="K7:K121" xr:uid="{B0BBDF78-5D1F-4EC6-81F8-0669237720CC}">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation type="date" errorStyle="information" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Date" error="Enter a valid Date." sqref="L7:L121" xr:uid="{B4A759B0-7E24-431F-8DD4-B26938F5517B}">
+    <dataValidation type="date" errorStyle="information" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Date" error="Enter a valid Date." sqref="L7:L121" xr:uid="{2F805469-492E-40A2-A37D-93EB93D0EEEA}">
       <formula1>1</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="B3" location="'HELP'!A1" display="Click here to access the help sheet" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="D7" location="'application time stamp'!B7" tooltip="Navigate to the ref cell in 'application time stamp' worksheet" display="application submit date" xr:uid="{2F8BAD6E-F23D-4BBB-94D0-6F52622C3159}"/>
-    <hyperlink ref="D8" location="'application time stamp'!B8" tooltip="Navigate to the ref cell in 'application time stamp' worksheet" display="application rejection date" xr:uid="{1777C287-8BD0-4852-9156-FAE9FA15F217}"/>
-    <hyperlink ref="D9" location="'application time stamp'!B9" tooltip="Navigate to the ref cell in 'application time stamp' worksheet" display="application resubmit date" xr:uid="{40CD72FE-9742-4BFC-8432-67215BE7031D}"/>
-    <hyperlink ref="D10" location="'application time stamp'!B10" tooltip="Navigate to the ref cell in 'application time stamp' worksheet" display="application loan note date" xr:uid="{90F4D1DA-5704-4223-B91E-352B22FF07E8}"/>
-    <hyperlink ref="D11" location="'application time stamp'!B11" tooltip="Navigate to the ref cell in 'application time stamp' worksheet" display="application close date" xr:uid="{744273D9-597F-4E45-81E3-F8B5328AECBC}"/>
-    <hyperlink ref="D12" location="'application time stamp'!B7" tooltip="Navigate to the ref cell in 'application time stamp' worksheet" display="application submit date" xr:uid="{90EB992B-3C40-41CC-A5C6-DB9AF9DA3F95}"/>
-    <hyperlink ref="D13" location="'application time stamp'!B8" tooltip="Navigate to the ref cell in 'application time stamp' worksheet" display="application rejection date" xr:uid="{FA1843A8-A624-4E85-8429-5832A43FF870}"/>
-    <hyperlink ref="D14" location="'application time stamp'!B9" tooltip="Navigate to the ref cell in 'application time stamp' worksheet" display="application resubmit date" xr:uid="{B8D32021-7FC4-4616-A262-11F701401EB0}"/>
-    <hyperlink ref="D15" location="'application time stamp'!B10" tooltip="Navigate to the ref cell in 'application time stamp' worksheet" display="application loan note date" xr:uid="{6768EAC6-85EB-4284-ACF9-E78A0BE06FB1}"/>
-    <hyperlink ref="D16" location="'application time stamp'!B11" tooltip="Navigate to the ref cell in 'application time stamp' worksheet" display="application close date" xr:uid="{2E1C905C-3DCF-4355-8722-9F59748BE9E0}"/>
-    <hyperlink ref="B7" location="'Scenarios'!D23" tooltip="Navigate to the referencing cell in 'Scenarios' worksheet" display="first mortgage application" xr:uid="{7CA3B415-FEED-483F-9EA1-771BF6D9CC5D}"/>
+    <hyperlink ref="D7" location="'application time stamp'!B7" tooltip="Navigate to the ref cell in 'application time stamp' worksheet" display="application submit date" xr:uid="{5450BD0E-67C6-48E9-B643-744F6F30A0D3}"/>
+    <hyperlink ref="D8" location="'application time stamp'!B8" tooltip="Navigate to the ref cell in 'application time stamp' worksheet" display="application rejection date" xr:uid="{FB61157D-AEC3-4F79-8485-2B3CD65CFE48}"/>
+    <hyperlink ref="D9" location="'application time stamp'!B9" tooltip="Navigate to the ref cell in 'application time stamp' worksheet" display="application resubmit date" xr:uid="{AFF28663-104E-4903-A0DE-80E988299DB7}"/>
+    <hyperlink ref="D10" location="'application time stamp'!B10" tooltip="Navigate to the ref cell in 'application time stamp' worksheet" display="application loan note date" xr:uid="{01D5A8DA-6F0A-43EC-9442-67C690C0102A}"/>
+    <hyperlink ref="D11" location="'application time stamp'!B11" tooltip="Navigate to the ref cell in 'application time stamp' worksheet" display="application close date" xr:uid="{EF3EDB47-0071-4286-8DAE-DCB2076737F5}"/>
+    <hyperlink ref="D12" location="'application time stamp'!B7" tooltip="Navigate to the ref cell in 'application time stamp' worksheet" display="application submit date" xr:uid="{DD70E5C5-B710-4221-9E68-449FC3796777}"/>
+    <hyperlink ref="D13" location="'application time stamp'!B8" tooltip="Navigate to the ref cell in 'application time stamp' worksheet" display="application rejection date" xr:uid="{E1654614-6178-4F8E-97CA-8E6B57704557}"/>
+    <hyperlink ref="D14" location="'application time stamp'!B9" tooltip="Navigate to the ref cell in 'application time stamp' worksheet" display="application resubmit date" xr:uid="{1988E903-5CF5-4918-B3FA-C813AA7D6299}"/>
+    <hyperlink ref="D15" location="'application time stamp'!B10" tooltip="Navigate to the ref cell in 'application time stamp' worksheet" display="application loan note date" xr:uid="{1F1B7E20-BF0C-4194-81C7-C17E7047C8A2}"/>
+    <hyperlink ref="D16" location="'application time stamp'!B11" tooltip="Navigate to the ref cell in 'application time stamp' worksheet" display="application close date" xr:uid="{7CAA0FDA-A052-4B26-9D38-55AE213ADD0F}"/>
+    <hyperlink ref="B7" location="'Scenarios'!D23" tooltip="Navigate to the referencing cell in 'Scenarios' worksheet" display="first mortgage application" xr:uid="{95B4394B-91DD-42BD-9B62-350AFB4DF4A4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16135,17 +16305,17 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D1048576" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>domainE</formula1>
     </dataValidation>
-    <dataValidation type="date" errorStyle="information" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Date" error="Enter a valid Date." sqref="C7:C116" xr:uid="{5F3E544A-2135-4C10-9D15-F4C90E937CAE}">
+    <dataValidation type="date" errorStyle="information" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Date" error="Enter a valid Date." sqref="C7:C116" xr:uid="{C601A2C0-35AE-4AC6-B491-E9BA8FA7E715}">
       <formula1>1</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="B3" location="'HELP'!A1" display="Click here to access the help sheet" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="B7" location="'application data'!D12" tooltip="Navigate to the referencing cell in 'application data' worksheet" display="application submit date" xr:uid="{AB6C5F2D-6386-4098-94D3-A1A106D26D3A}"/>
-    <hyperlink ref="B8" location="'application data'!D13" tooltip="Navigate to the referencing cell in 'application data' worksheet" display="application rejection date" xr:uid="{BD82EB1E-DA2A-4BF8-9676-06A7CA9E7486}"/>
-    <hyperlink ref="B9" location="'application data'!D14" tooltip="Navigate to the referencing cell in 'application data' worksheet" display="application resubmit date" xr:uid="{677E9D55-74ED-4824-B542-002A3C33C9BF}"/>
-    <hyperlink ref="B10" location="'application data'!D15" tooltip="Navigate to the referencing cell in 'application data' worksheet" display="application loan note date" xr:uid="{8E58FA8E-099F-4DA5-8AF3-0EB104053DB6}"/>
-    <hyperlink ref="B11" location="'application data'!D16" tooltip="Navigate to the referencing cell in 'application data' worksheet" display="application close date" xr:uid="{09E95E57-94D2-493B-9372-F61C61CBB62B}"/>
+    <hyperlink ref="B7" location="'application data'!D12" tooltip="Navigate to the referencing cell in 'application data' worksheet" display="application submit date" xr:uid="{981BBF24-31A2-4EC4-9266-ADC0D0ACA270}"/>
+    <hyperlink ref="B8" location="'application data'!D13" tooltip="Navigate to the referencing cell in 'application data' worksheet" display="application rejection date" xr:uid="{BB6B8226-604E-456A-846D-0010C0EC9B82}"/>
+    <hyperlink ref="B9" location="'application data'!D14" tooltip="Navigate to the referencing cell in 'application data' worksheet" display="application resubmit date" xr:uid="{06E5886C-A96E-4184-AC81-1B3C3D62F745}"/>
+    <hyperlink ref="B10" location="'application data'!D15" tooltip="Navigate to the referencing cell in 'application data' worksheet" display="application loan note date" xr:uid="{F6F96E67-BF33-49A5-B23B-E2D115FB7874}"/>
+    <hyperlink ref="B11" location="'application data'!D16" tooltip="Navigate to the referencing cell in 'application data' worksheet" display="application close date" xr:uid="{90158045-34F7-42F2-9593-BD835FC9C754}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16161,8 +16331,7 @@
   <dimension ref="B2:AN49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O6" sqref="O6"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -17387,45 +17556,45 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH7:AH1048576" xr:uid="{00000000-0002-0000-0400-00000B000000}">
       <formula1>domainM</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Reference" error="Enter a valid id defined in sheet 'contact info data'. If, however, you truly wish to enter a yet-to-be-defined id, click on Ok." sqref="E7:E122" xr:uid="{71F816EE-4CDB-4A3B-B9A2-248F154A036E}">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Reference" error="Enter a valid id defined in sheet 'contact info data'. If, however, you truly wish to enter a yet-to-be-defined id, click on Ok." sqref="E7:E122" xr:uid="{808EA838-8FA9-443A-829B-AE5A10837C01}">
       <formula1>'contact info data'!rulescape_ids</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Reference" error="Enter a valid id defined in sheet 'credit data'. If, however, you truly wish to enter a yet-to-be-defined id, click on Ok." sqref="F7:F122" xr:uid="{A2BE4718-D892-458A-81D0-C9C5B0177F7C}">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Reference" error="Enter a valid id defined in sheet 'credit data'. If, however, you truly wish to enter a yet-to-be-defined id, click on Ok." sqref="F7:F122" xr:uid="{028F3DB4-D0A6-46EA-ACE7-EB5A2256AEB5}">
       <formula1>'credit data'!rulescape_ids</formula1>
     </dataValidation>
-    <dataValidation type="date" errorStyle="information" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Date" error="Enter a valid Date." sqref="G7:G122" xr:uid="{59079914-8032-477B-A03F-63FF088631B3}">
+    <dataValidation type="date" errorStyle="information" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Date" error="Enter a valid Date." sqref="G7:G122" xr:uid="{6AAFBB92-3B10-4135-BFC3-366DACC37A38}">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Reference" error="Enter a valid id defined in sheet 'debt data'. If, however, you truly wish to enter a yet-to-be-defined id, click on Ok." sqref="H7:H122" xr:uid="{DB540758-D135-4757-AC21-0F30C78340EB}">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Reference" error="Enter a valid id defined in sheet 'debt data'. If, however, you truly wish to enter a yet-to-be-defined id, click on Ok." sqref="H7:H122" xr:uid="{9C6E12F8-4F98-426A-AC6B-685589DD89FC}">
       <formula1>'debt data'!rulescape_ids</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Reference" error="Enter a valid id defined in sheet 'borrower loan history'. If, however, you truly wish to enter a yet-to-be-defined id, click on Ok." sqref="S7:S122" xr:uid="{D061A50D-A0DC-4EBC-89D3-ECDCD7113B02}">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Reference" error="Enter a valid id defined in sheet 'borrower loan history'. If, however, you truly wish to enter a yet-to-be-defined id, click on Ok." sqref="S7:S122" xr:uid="{A5DEDC8F-690D-40F3-932B-BE37DC37E911}">
       <formula1>'borrower loan history'!rulescape_ids</formula1>
     </dataValidation>
-    <dataValidation type="date" errorStyle="information" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Date" error="Enter a valid Date." sqref="V7:V122" xr:uid="{25ED2BC0-EAC6-4E78-96B6-22BE56E1F9D8}">
+    <dataValidation type="date" errorStyle="information" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Date" error="Enter a valid Date." sqref="V7:V122" xr:uid="{A83E2A42-F845-481A-8F3C-F09E48CE178F}">
       <formula1>1</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="B3" location="'HELP'!A1" display="Click here to access the help sheet" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="F7" location="'credit data'!B7" tooltip="Navigate to the ref cell in 'credit data' worksheet" display="equifax credit data 1" xr:uid="{96E4E351-ABB8-4E4B-A0CE-F2C608EA7FB5}"/>
-    <hyperlink ref="F8" location="'credit data'!B8" tooltip="Navigate to the ref cell in 'credit data' worksheet" display="equifax credit data 2" xr:uid="{7C8F1F53-8AC9-4599-8A48-582E4FEBF957}"/>
-    <hyperlink ref="F10" location="'credit data'!B8" tooltip="Navigate to the ref cell in 'credit data' worksheet" display="equifax credit data 2" xr:uid="{1D35DD08-4234-40FF-89A8-07A829A8FA35}"/>
-    <hyperlink ref="F12" location="'credit data'!B8" tooltip="Navigate to the ref cell in 'credit data' worksheet" display="equifax credit data 2" xr:uid="{A015347B-822D-4EA9-A24F-0148F9372775}"/>
-    <hyperlink ref="F14" location="'credit data'!B8" tooltip="Navigate to the ref cell in 'credit data' worksheet" display="equifax credit data 2" xr:uid="{16354726-C3D7-4A0C-B873-969499714D8E}"/>
-    <hyperlink ref="F16" location="'credit data'!B8" tooltip="Navigate to the ref cell in 'credit data' worksheet" display="equifax credit data 2" xr:uid="{ACA17BBB-46B8-4D27-8C88-E7F7BA3E48F6}"/>
-    <hyperlink ref="H8" location="'debt data'!B7" tooltip="Navigate to the ref cell in 'debt data' worksheet" display="debt data 1" xr:uid="{E1A6D6FF-226F-4F9C-B2C5-244C6F0448C5}"/>
-    <hyperlink ref="H9" location="'debt data'!B8" tooltip="Navigate to the ref cell in 'debt data' worksheet" display="debt data 2" xr:uid="{5655BFE4-707E-46D1-8181-E0C1045C898B}"/>
-    <hyperlink ref="H10" location="'debt data'!B7" tooltip="Navigate to the ref cell in 'debt data' worksheet" display="debt data 1" xr:uid="{67431D5E-9A98-469E-966A-9BE49D145E5A}"/>
-    <hyperlink ref="H11" location="'debt data'!B8" tooltip="Navigate to the ref cell in 'debt data' worksheet" display="debt data 2" xr:uid="{820EBB4C-7D74-49A3-A600-320F52AC9832}"/>
-    <hyperlink ref="H12" location="'debt data'!B7" tooltip="Navigate to the ref cell in 'debt data' worksheet" display="debt data 1" xr:uid="{5E5B878F-B86F-45AA-9961-7DF94579B431}"/>
-    <hyperlink ref="H13" location="'debt data'!B8" tooltip="Navigate to the ref cell in 'debt data' worksheet" display="debt data 2" xr:uid="{2A82D5CD-64A2-45EB-B2E6-E1724EB0CCBC}"/>
-    <hyperlink ref="H14" location="'debt data'!B7" tooltip="Navigate to the ref cell in 'debt data' worksheet" display="debt data 1" xr:uid="{9E47E213-1D3A-4FBF-BCCC-0DDD236904B0}"/>
-    <hyperlink ref="H15" location="'debt data'!B8" tooltip="Navigate to the ref cell in 'debt data' worksheet" display="debt data 2" xr:uid="{1045675C-F65F-4920-B419-AC1954A1EC98}"/>
-    <hyperlink ref="H16" location="'debt data'!B7" tooltip="Navigate to the ref cell in 'debt data' worksheet" display="debt data 1" xr:uid="{62E48E49-BCAD-448D-BC1D-1649AB4A1111}"/>
-    <hyperlink ref="H17" location="'debt data'!B8" tooltip="Navigate to the ref cell in 'debt data' worksheet" display="debt data 2" xr:uid="{A93490A1-D5B1-425C-A5A0-9C5E7D337792}"/>
-    <hyperlink ref="B7" location="'Scenarios'!G21" tooltip="Navigate to the referencing cell in 'Scenarios' worksheet" display="John Doe" xr:uid="{01906D23-0424-4363-A3A5-F171CCC4B59B}"/>
-    <hyperlink ref="B8" location="'Scenarios'!G16" tooltip="Navigate to the referencing cell in 'Scenarios' worksheet" display="Yoeman Smith" xr:uid="{06B2B425-328A-47BD-A9BC-47C009CD816E}"/>
+    <hyperlink ref="F7" location="'credit data'!B7" tooltip="Navigate to the ref cell in 'credit data' worksheet" display="equifax credit data 1" xr:uid="{9A704C83-EC46-4740-8CAC-B07924BADFDB}"/>
+    <hyperlink ref="F8" location="'credit data'!B8" tooltip="Navigate to the ref cell in 'credit data' worksheet" display="equifax credit data 2" xr:uid="{CDF88AED-BDE3-4ED3-9559-DC26646DA9C9}"/>
+    <hyperlink ref="F10" location="'credit data'!B8" tooltip="Navigate to the ref cell in 'credit data' worksheet" display="equifax credit data 2" xr:uid="{59ADEB1B-9608-40A6-8DCE-0DD0FABD4479}"/>
+    <hyperlink ref="F12" location="'credit data'!B8" tooltip="Navigate to the ref cell in 'credit data' worksheet" display="equifax credit data 2" xr:uid="{8F55DD90-F80A-463D-AD84-7DCFABCF031F}"/>
+    <hyperlink ref="F14" location="'credit data'!B8" tooltip="Navigate to the ref cell in 'credit data' worksheet" display="equifax credit data 2" xr:uid="{E1C7DDA3-62B6-40F6-BDA4-E7E754D13616}"/>
+    <hyperlink ref="F16" location="'credit data'!B8" tooltip="Navigate to the ref cell in 'credit data' worksheet" display="equifax credit data 2" xr:uid="{A9A84B6C-7EC4-4B5B-8110-7AE184FC7C1E}"/>
+    <hyperlink ref="H8" location="'debt data'!B7" tooltip="Navigate to the ref cell in 'debt data' worksheet" display="debt data 1" xr:uid="{CE407E15-A667-44AF-B235-0B293F7BE6CD}"/>
+    <hyperlink ref="H9" location="'debt data'!B8" tooltip="Navigate to the ref cell in 'debt data' worksheet" display="debt data 2" xr:uid="{9A937BE1-BBA0-47DF-8A86-568F9D6F34F3}"/>
+    <hyperlink ref="H10" location="'debt data'!B7" tooltip="Navigate to the ref cell in 'debt data' worksheet" display="debt data 1" xr:uid="{8A290689-419B-41A9-8682-A17665E388F9}"/>
+    <hyperlink ref="H11" location="'debt data'!B8" tooltip="Navigate to the ref cell in 'debt data' worksheet" display="debt data 2" xr:uid="{553AE498-751A-469F-822A-7AB54DCEE862}"/>
+    <hyperlink ref="H12" location="'debt data'!B7" tooltip="Navigate to the ref cell in 'debt data' worksheet" display="debt data 1" xr:uid="{18A6175E-09B9-49B9-B331-99C29C770091}"/>
+    <hyperlink ref="H13" location="'debt data'!B8" tooltip="Navigate to the ref cell in 'debt data' worksheet" display="debt data 2" xr:uid="{0C92E2E8-5FD8-4A77-91DE-87B957568681}"/>
+    <hyperlink ref="H14" location="'debt data'!B7" tooltip="Navigate to the ref cell in 'debt data' worksheet" display="debt data 1" xr:uid="{924E3A6E-8665-40F9-8112-2DE1069CCD71}"/>
+    <hyperlink ref="H15" location="'debt data'!B8" tooltip="Navigate to the ref cell in 'debt data' worksheet" display="debt data 2" xr:uid="{3E5AA6DE-0F78-414E-96AF-FBD10F6F72A5}"/>
+    <hyperlink ref="H16" location="'debt data'!B7" tooltip="Navigate to the ref cell in 'debt data' worksheet" display="debt data 1" xr:uid="{3D7EE0A9-5CC2-47A4-8671-C3C86885EF99}"/>
+    <hyperlink ref="H17" location="'debt data'!B8" tooltip="Navigate to the ref cell in 'debt data' worksheet" display="debt data 2" xr:uid="{32CAB934-D5EE-46E4-AB5D-351592ABBAD7}"/>
+    <hyperlink ref="B7" location="'Scenarios'!G21" tooltip="Navigate to the referencing cell in 'Scenarios' worksheet" display="John Doe" xr:uid="{6C9D90E0-2A11-4AE5-973C-BA5C0DF1D454}"/>
+    <hyperlink ref="B8" location="'Scenarios'!G16" tooltip="Navigate to the referencing cell in 'Scenarios' worksheet" display="Yoeman Smith" xr:uid="{3204F57E-3E3F-45F8-8DCE-AF94099FF845}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17534,17 +17703,17 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Reference" error="Enter a valid id defined in sheet 'postal address'. If, however, you truly wish to enter a yet-to-be-defined id, click on Ok." sqref="E7:E112" xr:uid="{9BFAE7E7-7B70-4790-B798-DF09EAAB6B63}">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Reference" error="Enter a valid id defined in sheet 'postal address'. If, however, you truly wish to enter a yet-to-be-defined id, click on Ok." sqref="E7:E112" xr:uid="{4D97B8A1-2324-4733-BB03-57520EFA42A7}">
       <formula1>'postal address'!rulescape_ids</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Reference" error="Enter a valid id defined in sheet 'postal address'. If, however, you truly wish to enter a yet-to-be-defined id, click on Ok." sqref="H7:H112" xr:uid="{150AD573-4D14-4A23-ACC9-01A0B43F96AA}">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Reference" error="Enter a valid id defined in sheet 'postal address'. If, however, you truly wish to enter a yet-to-be-defined id, click on Ok." sqref="H7:H112" xr:uid="{F9CF704F-3769-4E6F-A7D9-E75FBE54F824}">
       <formula1>'postal address'!rulescape_ids</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="B3" location="'HELP'!A1" display="Click here to access the help sheet" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="E7" location="'postal address'!B7" tooltip="Navigate to the ref cell in 'postal address' worksheet" display="Home Address 1" xr:uid="{737E6A80-99C2-4DEB-B6F7-0349FF436998}"/>
-    <hyperlink ref="H7" location="'postal address'!B7" tooltip="Navigate to the ref cell in 'postal address' worksheet" display="Home Address 1" xr:uid="{04C34D27-9FFD-488F-A3AE-A5E0DBAD78A2}"/>
+    <hyperlink ref="E7" location="'postal address'!B7" tooltip="Navigate to the ref cell in 'postal address' worksheet" display="Home Address 1" xr:uid="{F8050515-7973-4FE0-B9BD-D6394A05377A}"/>
+    <hyperlink ref="H7" location="'postal address'!B7" tooltip="Navigate to the ref cell in 'postal address' worksheet" display="Home Address 1" xr:uid="{A3649A35-6310-4CFE-A60B-CC8C40F953E0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17644,7 +17813,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" location="'HELP'!A1" display="Click here to access the help sheet" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-    <hyperlink ref="B7" location="'contact info data'!H7" tooltip="Navigate to the referencing cell in 'contact info data' worksheet" display="Home Address 1" xr:uid="{247FDD93-91C3-496F-AB67-421F1B1D658B}"/>
+    <hyperlink ref="B7" location="'contact info data'!H7" tooltip="Navigate to the referencing cell in 'contact info data' worksheet" display="Home Address 1" xr:uid="{91B530B0-563B-44C2-AC19-786FA5D18188}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17660,8 +17829,7 @@
   <dimension ref="B2:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K26" sqref="K26"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -17955,14 +18123,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E1048576" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>domainB</formula1>
     </dataValidation>
-    <dataValidation type="date" errorStyle="information" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Date" error="Enter a valid Date." sqref="C7:C113" xr:uid="{1E73E03F-FDDB-499F-A32C-F1AAE639B8FD}">
+    <dataValidation type="date" errorStyle="information" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Date" error="Enter a valid Date." sqref="C7:C113" xr:uid="{FA31C58D-7A05-4DD1-A946-310A1B413578}">
       <formula1>1</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="B3" location="'HELP'!A1" display="Click here to access the help sheet" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
-    <hyperlink ref="B7" location="'borrower data'!F7" tooltip="Navigate to the referencing cell in 'borrower data' worksheet" display="equifax credit data 1" xr:uid="{35546A0B-FE66-4E55-8D32-6C9F9959CCFB}"/>
-    <hyperlink ref="B8" location="'borrower data'!F16" tooltip="Navigate to the referencing cell in 'borrower data' worksheet" display="equifax credit data 2" xr:uid="{4565D8E0-25E0-4CD1-9D07-4AF3E1196024}"/>
+    <hyperlink ref="B7" location="'borrower data'!F7" tooltip="Navigate to the referencing cell in 'borrower data' worksheet" display="equifax credit data 1" xr:uid="{2ABCD5CC-E7F8-4EB3-BAB4-06CFEF423AE4}"/>
+    <hyperlink ref="B8" location="'borrower data'!F16" tooltip="Navigate to the referencing cell in 'borrower data' worksheet" display="equifax credit data 2" xr:uid="{7C079D5A-0280-4F36-8579-21BEA5DA37EC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17972,10 +18140,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="B2:I8"/>
+  <dimension ref="B2:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -18101,19 +18269,37 @@
         <v>0</v>
       </c>
     </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D14" s="1"/>
+    </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G1048576 I7:I1048576" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>domainB</formula1>
     </dataValidation>
-    <dataValidation type="date" errorStyle="information" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Date" error="Enter a valid Date." sqref="D7:D113" xr:uid="{2F619258-6DC4-453E-97E8-8E2FA39335C8}">
+    <dataValidation type="date" errorStyle="information" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RuleScape ODM Test Buddy says: Invalid Date" error="Enter a valid Date." sqref="D7:D113" xr:uid="{B6DCC793-F1B8-4522-98AD-181542CFADCE}">
       <formula1>1</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="B3" location="'HELP'!A1" display="Click here to access the help sheet" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
-    <hyperlink ref="B7" location="'borrower data'!H16" tooltip="Navigate to the referencing cell in 'borrower data' worksheet" display="debt data 1" xr:uid="{543B99F3-4763-40F4-91E8-84ECEE6080F1}"/>
-    <hyperlink ref="B8" location="'borrower data'!H17" tooltip="Navigate to the referencing cell in 'borrower data' worksheet" display="debt data 2" xr:uid="{1CAAD1CD-21AA-400E-84DF-208AA6AD3D24}"/>
+    <hyperlink ref="B7" location="'borrower data'!H16" tooltip="Navigate to the referencing cell in 'borrower data' worksheet" display="debt data 1" xr:uid="{B65C38AD-0263-4A0D-92C4-9C1637845AB6}"/>
+    <hyperlink ref="B8" location="'borrower data'!H17" tooltip="Navigate to the referencing cell in 'borrower data' worksheet" display="debt data 2" xr:uid="{76A7227A-1613-48CA-A5B6-E0FAAFB51B46}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
